--- a/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>drop</t>
@@ -73,6 +73,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -82,30 +85,21 @@
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -121,10 +115,13 @@
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
   </si>
   <si>
     <t>a</t>
@@ -136,145 +133,151 @@
     <t>to</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,16 +825,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8013698630136986</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -969,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6101694915254238</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5329457364341085</v>
+        <v>0.55</v>
       </c>
       <c r="C14">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5098039215686274</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4765100671140939</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7578125</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.475</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1501,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.44</v>
+        <v>0.425</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
         <v>35</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3454545454545455</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.6852941176470588</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2857142857142857</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1801,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2738095238095238</v>
+        <v>0.09</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,37 +1854,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1903485254691689</v>
+        <v>0.01982758620689655</v>
       </c>
       <c r="C26">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>302</v>
+        <v>1137</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.6170212765957447</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,37 +1904,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07333333333333333</v>
+        <v>0.01689902830587241</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>278</v>
+        <v>2327</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,37 +1954,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.02068965517241379</v>
+        <v>0.01517597675169519</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="F28">
-        <v>0.96</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1136</v>
+        <v>3050</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.606694560669456</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,49 +2004,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01901140684410646</v>
+        <v>0.01217798594847775</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F29">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2322</v>
+        <v>2109</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.5958904109589042</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,49 +2054,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01591760299625468</v>
+        <v>0.009570312500000001</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E30">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="F30">
-        <v>0.83</v>
+        <v>0.52</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2102</v>
+        <v>5071</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.5617977528089888</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,37 +2104,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0148530836293187</v>
+        <v>0.008726003490401396</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="F31">
-        <v>0.8200000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>3051</v>
+        <v>2272</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,37 +2154,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01046663759267335</v>
+        <v>0.007679870654810024</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E32">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F32">
-        <v>0.6</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2269</v>
+        <v>4910</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.54</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,37 +2204,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009096422073984234</v>
+        <v>0.006308411214953271</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E33">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="F33">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>4902</v>
+        <v>4253</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.4666666666666667</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,37 +2254,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008383791336748951</v>
+        <v>0.006005056890012643</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E34">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="F34">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4258</v>
+        <v>3145</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K34">
-        <v>0.4509803921568628</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,45 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.007870753935376968</v>
-      </c>
-      <c r="C35">
-        <v>19</v>
-      </c>
-      <c r="D35">
-        <v>50</v>
-      </c>
-      <c r="E35">
-        <v>0.62</v>
-      </c>
-      <c r="F35">
-        <v>0.38</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2395</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K35">
-        <v>0.3835616438356164</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,39 +2322,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.007606787595084845</v>
-      </c>
-      <c r="C36">
-        <v>39</v>
-      </c>
-      <c r="D36">
-        <v>77</v>
-      </c>
-      <c r="E36">
-        <v>0.49</v>
-      </c>
-      <c r="F36">
-        <v>0.51</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>5088</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K36">
-        <v>0.359375</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L36">
         <v>23</v>
@@ -2393,45 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.006321112515802781</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>57</v>
-      </c>
-      <c r="E37">
-        <v>0.65</v>
-      </c>
-      <c r="F37">
-        <v>0.35</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>3144</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.3461538461538461</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2443,345 +2374,423 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.04857621440536013</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L38">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.04556354916067146</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>398</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.03663003663003663</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>526</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.02030456852791878</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>965</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.0196078431372549</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1250</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.01957831325301205</v>
+        <v>0.03663003663003663</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2604</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.01341719077568134</v>
+        <v>0.03430962343096234</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N44">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="O44">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2353</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.01277823577906018</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N45">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2395</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.01261034047919294</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N46">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="O46">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.01163156240176045</v>
+        <v>0.01731275875047045</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N47">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="O47">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3144</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>0.00989699050696829</v>
+        <v>0.01400906468891636</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="N48">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="O48">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4902</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.007921714818266543</v>
+        <v>0.01257334450963956</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="O49">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>4258</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K50">
-        <v>0.0074131876706984</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L50">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>56</v>
+      </c>
+      <c r="N50">
+        <v>0.66</v>
+      </c>
+      <c r="O50">
+        <v>0.34</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M50">
-        <v>77</v>
-      </c>
-      <c r="N50">
-        <v>0.49</v>
-      </c>
-      <c r="O50">
-        <v>0.51</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5088</v>
+      <c r="K51">
+        <v>0.01116019530341781</v>
+      </c>
+      <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="M51">
+        <v>75</v>
+      </c>
+      <c r="N51">
+        <v>0.64</v>
+      </c>
+      <c r="O51">
+        <v>0.36</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52">
+        <v>0.009681323114158934</v>
+      </c>
+      <c r="L52">
+        <v>48</v>
+      </c>
+      <c r="M52">
+        <v>86</v>
+      </c>
+      <c r="N52">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <v>0.008795934323690384</v>
+      </c>
+      <c r="L53">
+        <v>45</v>
+      </c>
+      <c r="M53">
+        <v>94</v>
+      </c>
+      <c r="N53">
+        <v>0.48</v>
+      </c>
+      <c r="O53">
+        <v>0.52</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>5071</v>
       </c>
     </row>
   </sheetData>
